--- a/data/zombie5.xlsx
+++ b/data/zombie5.xlsx
@@ -366,277 +366,277 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>185</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>233</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>303</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>473</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>511</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>531</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>731</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>762</v>
+        <v>814</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>814</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>831</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>875</v>
+        <v>961</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>961</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1059</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1267</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1343</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1355</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1364</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1372</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1378</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1387</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1390</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1393</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1400</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1412</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1440</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1444</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1447</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1456</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1463</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1472</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1493</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1499</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1526</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1531</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1176</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1193</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1475</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/zombie5.xlsx
+++ b/data/zombie5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,271 +371,266 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>185</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>233</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>303</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>473</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>511</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>531</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>731</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>762</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>814</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>831</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>875</v>
+        <v>961</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>961</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1059</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1267</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1343</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1355</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1364</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1372</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1378</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1387</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1390</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1393</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1400</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1412</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1440</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1444</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1447</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1456</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1463</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1472</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1493</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1499</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1526</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1531</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1176</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1193</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
         <v>9</v>
       </c>
     </row>
